--- a/Device Interaction/Automation/Dimmers.xlsx
+++ b/Device Interaction/Automation/Dimmers.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="24">
   <si>
     <t>Application</t>
   </si>
@@ -211,6 +211,9 @@
     <t>min</t>
   </si>
   <si>
+    <t>Pairs</t>
+  </si>
+  <si>
     <t>max</t>
   </si>
   <si>
@@ -218,9 +221,6 @@
   </si>
   <si>
     <t>Detected time:</t>
-  </si>
-  <si>
-    <t>Pairs</t>
   </si>
   <si>
     <t>no error</t>
@@ -230,7 +230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -244,16 +244,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -342,8 +332,8 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -357,30 +347,30 @@
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -414,28 +404,28 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -529,9 +519,8 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/bright-when-dark-and-or-bright-after-sunset.groovy","bright-when-dark-and-or-bright-after-sunset.groovy")</f>
-        <v>bright-when-dark-and-or-bright-after-sunset.groovy</v>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
@@ -574,9 +563,8 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/gentle-wake-up.groovy","gentle-wake-up.groovy")</f>
-        <v>gentle-wake-up.groovy</v>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -619,9 +607,8 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lighting-director.groovy","lighting-director.groovy")</f>
-        <v>lighting-director.groovy</v>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
@@ -664,9 +651,8 @@
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/buffered-event-sender.groovy","buffered-event-sender.groovy")</f>
-        <v>buffered-event-sender.groovy</v>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>16</v>
@@ -709,9 +695,8 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/circadian-daylight.groovy","circadian-daylight.groovy")</f>
-        <v>circadian-daylight.groovy</v>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
@@ -754,9 +739,8 @@
       <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/groveStreams.groovy","groveStreams.groovy")</f>
-        <v>groveStreams.groovy</v>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>16</v>
@@ -799,9 +783,8 @@
       <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/influxdb-logger.groovy","influxdb-logger.groovy")</f>
-        <v>influxdb-logger.groovy</v>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>16</v>
@@ -844,9 +827,8 @@
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initial-state-event-sender.groovy","initial-state-event-sender.groovy")</f>
-        <v>initial-state-event-sender.groovy</v>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>17</v>
@@ -889,9 +871,8 @@
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initialstate-smart-app-v1.2.0.groovy","initialstate-smart-app-v1.2.0.groovy")</f>
-        <v>initialstate-smart-app-v1.2.0.groovy</v>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>17</v>
@@ -934,9 +915,8 @@
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/unbuffered-event-sender.groovy","unbuffered-event-sender.groovy")</f>
-        <v>unbuffered-event-sender.groovy</v>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>17</v>
@@ -973,99 +953,99 @@
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <f t="shared" ref="E12:N12" si="1">countif(E$2:E$11, "detected")</f>
         <v>3</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="12">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O12" s="14">
         <f t="shared" ref="O12:O15" si="3">sum(E12:N12)</f>
         <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="14">
         <f>combin(A11,2)</f>
         <v>45</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
         <f t="shared" ref="E13:N13" si="2">countif(E$2:E$11, "no error")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1078,43 +1058,43 @@
       <c r="D14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <f t="shared" ref="E14:N14" si="4">COUNTIF(E$2:E$11, "oom")</f>
         <v>3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="12">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N14" s="16">
+      <c r="N14" s="12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1127,43 +1107,43 @@
       <c r="D15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="12">
         <f t="shared" ref="E15:N15" si="5">COUNTIF(E$2:E$11, "timeout")</f>
         <v>3</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="12">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="12">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="12">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="12">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1390,9 +1370,8 @@
       <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/bright-when-dark-and-or-bright-after-sunset.groovy","bright-when-dark-and-or-bright-after-sunset.groovy")</f>
-        <v>bright-when-dark-and-or-bright-after-sunset.groovy</v>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>13</v>
@@ -1435,9 +1414,8 @@
       <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/gentle-wake-up.groovy","gentle-wake-up.groovy")</f>
-        <v>gentle-wake-up.groovy</v>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
       </c>
       <c r="E3" s="8">
         <v>0.0012731481481481483</v>
@@ -1480,9 +1458,8 @@
       <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/official/lighting-director.groovy","lighting-director.groovy")</f>
-        <v>lighting-director.groovy</v>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="8">
         <v>0.001712962962962963</v>
@@ -1525,9 +1502,8 @@
       <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/buffered-event-sender.groovy","buffered-event-sender.groovy")</f>
-        <v>buffered-event-sender.groovy</v>
+      <c r="D5" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11"/>
@@ -1564,9 +1540,8 @@
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/circadian-daylight.groovy","circadian-daylight.groovy")</f>
-        <v>circadian-daylight.groovy</v>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="E6" s="8">
         <v>0.0019675925925925924</v>
@@ -1607,9 +1582,8 @@
       <c r="C7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/groveStreams.groovy","groveStreams.groovy")</f>
-        <v>groveStreams.groovy</v>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1642,9 +1616,8 @@
       <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/influxdb-logger.groovy","influxdb-logger.groovy")</f>
-        <v>influxdb-logger.groovy</v>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1675,9 +1648,8 @@
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initial-state-event-sender.groovy","initial-state-event-sender.groovy")</f>
-        <v>initial-state-event-sender.groovy</v>
+      <c r="D9" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -1706,9 +1678,8 @@
       <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/initialstate-smart-app-v1.2.0.groovy","initialstate-smart-app-v1.2.0.groovy")</f>
-        <v>initialstate-smart-app-v1.2.0.groovy</v>
+      <c r="D10" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1735,9 +1706,8 @@
       <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="10" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/unbuffered-event-sender.groovy","unbuffered-event-sender.groovy")</f>
-        <v>unbuffered-event-sender.groovy</v>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -1753,30 +1723,30 @@
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="12"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="H13" s="15" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14">
-      <c r="E14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="18">
         <f>MIN(E2:N11)</f>
         <v>0.0004398148148</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="18">
         <f>MAX(E2:N11)</f>
         <v>0.001967592593</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="18">
         <f>AVERAGE(E1:N11)</f>
         <v>0.001433256173</v>
       </c>

--- a/Device Interaction/Automation/Dimmers.xlsx
+++ b/Device Interaction/Automation/Dimmers.xlsx
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="23">
   <si>
     <t>Application</t>
   </si>
@@ -202,18 +202,18 @@
     <t>reader</t>
   </si>
   <si>
-    <t>oom</t>
-  </si>
-  <si>
-    <t>timeout</t>
+    <t>non-terminated</t>
+  </si>
+  <si>
+    <t>Pairs</t>
+  </si>
+  <si>
+    <t>no error</t>
   </si>
   <si>
     <t>min</t>
   </si>
   <si>
-    <t>Pairs</t>
-  </si>
-  <si>
     <t>max</t>
   </si>
   <si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Detected time:</t>
-  </si>
-  <si>
-    <t>no error</t>
   </si>
 </sst>
 </file>
@@ -316,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -341,9 +338,6 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -356,29 +350,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
@@ -433,6 +412,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -645,22 +639,22 @@
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -707,7 +701,7 @@
       <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -733,28 +727,28 @@
       <c r="A7" s="4">
         <v>6.0</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="11" t="s">
+      <c r="E7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -777,32 +771,32 @@
       <c r="A8" s="4">
         <v>7.0</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>17</v>
+      <c r="E8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>13</v>
@@ -821,35 +815,35 @@
       <c r="A9" s="4">
         <v>8.0</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>17</v>
+      <c r="E9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>13</v>
@@ -865,38 +859,38 @@
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>17</v>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>13</v>
@@ -909,41 +903,41 @@
       <c r="A11" s="4">
         <v>10.0</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>17</v>
+      <c r="E11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>13</v>
@@ -953,339 +947,299 @@
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f t="shared" ref="E12:N12" si="1">countif(E$2:E$11, "detected")</f>
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O12" s="14">
-        <f t="shared" ref="O12:O15" si="3">sum(E12:N12)</f>
+      <c r="O12" s="12">
+        <f t="shared" ref="O12:O14" si="3">sum(E12:N12)</f>
         <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="12">
         <f>combin(A11,2)</f>
         <v>45</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11">
         <f t="shared" ref="E13:N13" si="2">countif(E$2:E$11, "no error")</f>
         <v>0</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="D14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" ref="E14:N14" si="4">COUNTIF(E$2:E$11, "oom")</f>
-        <v>3</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" ref="E14:N14" si="4">COUNTIF(E$2:E$11, "non-terminated")</f>
+        <v>6</v>
+      </c>
+      <c r="F14" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="H14" s="11">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="11">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="J14" s="11">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="11">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H14" s="12">
+      <c r="M14" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="N14" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J14" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="22">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
-      <c r="D15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" ref="E15:N15" si="5">COUNTIF(E$2:E$11, "timeout")</f>
-        <v>3</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H15" s="12">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="K15" s="12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="L15" s="12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M15" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="22">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <f>sum(O14:O15)</f>
-        <v>39</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="17">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18">
-      <c r="B18" s="26"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="27"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="24"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="24"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20">
-      <c r="B20" s="30"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21">
-      <c r="B21" s="31"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="27"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22">
-      <c r="B22" s="32"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="28"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="24"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25">
-      <c r="B25" s="33"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26">
-      <c r="B26" s="34"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27">
-      <c r="B27" s="35"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28">
-      <c r="B28" s="35"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29">
-      <c r="B29" s="36"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="37"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="36">
-      <c r="E36" s="38"/>
+      <c r="E36" s="32"/>
     </row>
     <row r="37">
       <c r="E37" s="1"/>
-      <c r="G37" s="39"/>
+      <c r="G37" s="33"/>
     </row>
     <row r="38">
       <c r="E38" s="1"/>
-      <c r="G38" s="40"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39">
       <c r="E39" s="1"/>
-      <c r="G39" s="40"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40">
       <c r="E40" s="1"/>
-      <c r="G40" s="40"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41">
       <c r="E41" s="1"/>
-      <c r="G41" s="40"/>
+      <c r="G41" s="34"/>
     </row>
     <row r="42">
       <c r="E42" s="1"/>
-      <c r="G42" s="39"/>
+      <c r="G42" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1417,8 +1371,8 @@
       <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8">
-        <v>0.0012731481481481483</v>
+      <c r="E3" s="35">
+        <v>9.259259259259259E-5</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>13</v>
@@ -1461,11 +1415,11 @@
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="8">
-        <v>0.001712962962962963</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.001412037037037037</v>
+      <c r="E4" s="35">
+        <v>8.101851851851852E-5</v>
+      </c>
+      <c r="F4" s="35">
+        <v>9.259259259259259E-5</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>13</v>
@@ -1496,18 +1450,18 @@
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1543,16 +1497,16 @@
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.0019675925925925924</v>
-      </c>
-      <c r="F6" s="8">
-        <v>4.398148148148148E-4</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0.0017939814814814815</v>
-      </c>
-      <c r="H6" s="11"/>
+      <c r="E6" s="35">
+        <v>1.0416666666666667E-4</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.002777777777777778</v>
+      </c>
+      <c r="G6" s="35">
+        <v>3.0092592592592595E-4</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1576,20 +1530,20 @@
       <c r="A7" s="4">
         <v>6.0</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1610,21 +1564,21 @@
       <c r="A8" s="4">
         <v>7.0</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1642,22 +1596,22 @@
       <c r="A9" s="4">
         <v>8.0</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1672,23 +1626,23 @@
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1700,55 +1654,55 @@
       <c r="A11" s="4">
         <v>10.0</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
       <c r="N11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="13"/>
-      <c r="F13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="39">
         <f>MIN(E2:N11)</f>
-        <v>0.0004398148148</v>
-      </c>
-      <c r="G14" s="18">
+        <v>0.00008101851852</v>
+      </c>
+      <c r="G14" s="39">
         <f>MAX(E2:N11)</f>
-        <v>0.001967592593</v>
-      </c>
-      <c r="H14" s="18">
+        <v>0.002777777778</v>
+      </c>
+      <c r="H14" s="39">
         <f>AVERAGE(E1:N11)</f>
-        <v>0.001433256173</v>
+        <v>0.000574845679</v>
       </c>
     </row>
   </sheetData>
